--- a/Datascraping/output_excel_files_new/University of Hyderabad_tables.xlsx
+++ b/Datascraping/output_excel_files_new/University of Hyderabad_tables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M71"/>
+  <dimension ref="A1:M65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,27 +520,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PG [2 Year Program(s)]</t>
+          <t>UG [4 Years Program(s)]</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>205</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>205</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>205</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -563,32 +563,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PG [3 Year Program(s)]</t>
+          <t>UG [5 Years Program(s)]</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>121</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>125</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,32 +606,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PG-Integrated</t>
+          <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>180</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>-</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -649,85 +649,42 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PG [6 Years Program(s)]</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
           <t>(All programs of all years)</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>No. of Male Students</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>No. of Female Students</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Total Students</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Within State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Outside State (Including male &amp; female)</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Outside Country@@ -735,7 +692,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Economically Backward@@ -743,7 +700,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>Socially Challenged@@ -752,7 +709,7 @@
 &amp; female)</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -763,7 +720,7 @@
 Government</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -773,7 +730,7 @@
 Funds</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>No. of students receiving full@@ -783,7 +740,7 @@
 Bodies</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>No. of students who are not@@ -793,315 +750,262 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UG [4 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>703</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>UG [5 Years+Program(s)]</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>551</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>PG [2 Year Program(s)]</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1506</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1226</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2732</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>802</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1895</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>261</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>1548</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1073</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>736</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>PG [3 Year-Program(s)]</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>45</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PG-Integrated</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>540</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>464</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1004</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>295</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>686</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>574</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>404</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PG [6 Year-Program(s)]</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>No. of students+admitted through+Lateral entry</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Academic Year</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>No. of students+graduating in+minimum stipulated+time</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1109,15 +1013,126 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2100000(Twenty One+Lakhs)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2953000(Twenty Nine+Lakhs Fifty Three+Thousand)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -1130,12 +1145,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1231</t>
+          <t>171</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1145,27 +1160,35 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1017</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>450000(four lakh fifty-thousand)</t>
+          <t>155</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>269</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>3036000(Thirty Lakh+Thirty Six Thousand)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1173,137 +1196,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>1491</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1425</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1355</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>350</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>420000(four lakh-twenty thousand)</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>325</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1538</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1478</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1409</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>461</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>675000(six lakh-seventy five thousand)</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>346</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>No. of students admitted through Lateral entry</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>No. of students graduating in@@ -1311,13 +1238,13 @@
 time</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1325,13 +1252,125 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2015-16</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2200000(Twenty Two+Lakhs)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2016-17</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2017-18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2400000(Twenty Four+Lakhs)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1344,12 +1383,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>171</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>86</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1359,33 +1398,34 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>100</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>94</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>650000(six lakhs fifty-thousand)</t>
+          <t>2798000(Twenty+Seven Lakhs Ninety+Eight Thousand)</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K17" t="inlineStr"/>
@@ -1395,152 +1435,41 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2018-19</t>
+          <t>Academic Year</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>650000(six lakhs fifty-thousand)</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>700000(seven lakhs)</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
         <is>
           <t>No. of first year students intake in the year</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>No. of first year students admitted in the year</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Academic Year</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>No. of students graduating in minimum stipulated time</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>No. of students placed</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Median salary of placed graduates per@@ -1548,11 +1477,108 @@
 Rs.)</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>No. of students selected for Higher Studies</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2018-19</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1600000(Sixteen+Lakhs)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1870000(Eighteen+Lakhs Seventy+Thousand)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>5</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -1564,43 +1590,44 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2015-16</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>136</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>136</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2195000(Twenty One+Lakhs Ninty Five+Thousand)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
           <t>10</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>690000(six lakh ninety-thousand )</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>110</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -1612,45 +1639,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2016-17</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>223</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>210</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>190</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>776000(seven lakh-seventy six thousand)</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>181</t>
-        </is>
-      </c>
+          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1658,47 +1656,18 @@
       <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2017-18</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>211</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>188</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>730000(seven lakh-thirty thousand)</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>151</t>
-        </is>
-      </c>
+          <t>Total Students</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1708,55 +1677,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Academic Year</t>
+          <t>Full Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>No. of first year-students intake in the-year</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>No. of first year-students admitted in-the year</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Academic Year</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>No. of students graduating in minimum-stipulated time</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>No. of students-placed</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Median salary of-placed graduates per-annum(Amount in-Rs.)</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>No. of students-selected for Higher-Studies</t>
-        </is>
-      </c>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1766,44 +1700,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2014-15</t>
+          <t>Part Time</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1813,44 +1723,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2015-16</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1858,46 +1740,26 @@
       <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2016-17</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0(Zero)</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+          <t>2019-20</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1907,12 +1769,24 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ph.D (Student pursuing doctoral program till 2021-22)</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>Full Time</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -1924,14 +1798,26 @@
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr"/>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Part Time</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Total Students</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -1945,16 +1831,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1332</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -1966,18 +1860,22 @@
       <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Part Time</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Utilised Amount</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
@@ -1991,7 +1889,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>No. of Ph.D students graduated (including Integrated Ph.D)</t>
+          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2008,20 +1906,27 @@
       <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr"/>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Library</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>11658174 (One Crore Sixteen Lakhs Fifty Eight Thousand One+Hundred and Seventy Four   )</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>11129682 (One Crore Eleven Lakhs Twenty Nine Thousand+Six Hundred Eighty Two)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>9417898 (Ninety Four Lakhs Seventeen Thousand Eight+Hundred Ninety Eight)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2037,22 +1942,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Full Time</t>
+          <t>New Equipment for Laboratories</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>41779260 (Four Crore Seventeen Lakhs Seventy Nine+Thousand Two Hundred Sixty)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>55311993 (Five Crore Fifty Three Lakhs Eleven Thousand+Nine Hundred Ninety Three)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>56936675 (Five Crore Sixty Nine Lakhs Thirty Six Thousand+Six Hundred and Seventy Five)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2068,22 +1976,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Part Time</t>
+          <t>Engineering Workshops</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1775260 (Seventeen Lakhs Seventy Five Thousand Two+Hundred Sixty)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1611121 (Sixteen Lakhs Eleven Thousand One Hundred+Twenty One)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>235136 (Two Lakhs Thirty Five Thousand One Hundred Thirty+Six)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2099,22 +2010,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Studios</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>27215722 (Two Crore Seventy Two Lakhs Fifteen Thousand+Seven Hundred Twenty Two)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>9914768 (Ninety Nine Lakhs Fourteen Thousand Seven+Hundred Sixty Eight)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>932040 (Nine Lakhs Thirty Two Thousand and Forty)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2128,20 +2041,28 @@
       <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr"/>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Other expenditure on creation of Capital Assets (excluding+expenditure on Land and Building)</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>33751307 (Three Crore Thirty Seven Lakhs Fifty One+Thousand Three Hundred and Seven)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>16842249 (One Crore Sixty Eight Lakhs Forty Two Thousand+Two Hundred and Forty Nine)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>18303322 (One Crore Eighty Three Lakh Three Thousand+Three Hundred Twenty Two)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2157,12 +2078,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Annual Capital Expenditure on Academic Activities and Resources (excluding expenditure on buildings)</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+          <t>Financial Year</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2021-22</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2020-21</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2019-20</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
@@ -2174,27 +2107,20 @@
       <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Library</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29996240 (two crores ninety nine lakhs ninety six thousand two-hundred and forty only)</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>66718482 (six crores sixty seven thousand eighteen thousand-four hundred and eighty two only )</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>47977003 (four crores seventy nine lakhs seventy seven-thousand and three only)</t>
+          <t>Utilised Amount</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2210,27 +2136,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>New Equipment for Laboratories</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>121598557 (twelve crores fifteen lakhs ninety eight thousand-five hundred and fifty seven only)</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>89391980 (eight crores ninety three lakhs ninety one thousand-nine hundred and eighty only)</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>23033235 (two crores thirty lakhs thirty three thousand two-hundred and thirty five only)</t>
-        </is>
-      </c>
+          <t>Annual Operational Expenditure</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -2244,25 +2155,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Engineering Workshops</t>
+          <t>Salaries (Teaching and Non Teaching staff)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>10746997 (one crore seven lakhs forty six thousand nine-hundred and ninety seven only)</t>
+          <t>372675703 (Thirty Seven Crore Twenty Six Lakh Seventy Five+Thousand Seven Hundred And Three)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>15239809 (one crore fifty two lakhs thirty nine thousand eight-hundred and nine only)</t>
+          <t>352589408 (Thirty Five Crore Twenty Five Lakhs Eighty Nine+Thousand Four Hundred Eight)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>16048925 (one crore sixty lakhs forty eight thousand nine-hundred and twenty five only)</t>
+          <t>350666804 (Thirty Five Crore Six Lakhs Sixty Six Thousand+Eight Hundred and Four)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2278,22 +2189,27 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Studios</t>
+          <t>Maintenance of Academic Infrastructure or consumables and+other running expenditures(excluding maintenance of hostels+and allied services,rent of the building, depreciation cost, etc)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>227020797 (Twenty Two Crore Seventy Lakh Twenty+Thousand Seven Hundred And Ninety Seven)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>208359973 (Twenty Crore Eighty Three Lakhs Fifty Nine+Thousand Nine Hundred and Seventy Three)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0 (zero)</t>
+          <t>132233673 (Thirteen Crore Twenty Two Thirty Three+Thousand Six Hundred and Seventy Three)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -2309,26 +2225,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Other expenditure on creation of Capital Assets (excluding-expenditure on Land and Building)</t>
+          <t>Seminars/Conferences/Workshops</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16086197 (one crore sixty lakhs eighty seven thousand one-hundred and ninety seven only)</t>
+          <t>3679015 (Thirty Six Lakhs Seventy Nine Thousand and+Fifteen)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>41706370 (four crores seventeen lakhs six thousand three-hundred and seventy only)</t>
+          <t>2236669 (Twenty Two Lakhs Thirty Six Thousand Six Hundred+Sixty Nine)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>106515006 (ten crores sixty five lakhs fifteen thousand and six-only)</t>
+          <t>4023205 (Forty Lakhs Twenty Three Thousand Two Hundred+and Five)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -2373,20 +2288,24 @@
       <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Total no. of Sponsored Projects</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>55</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Utilised Amount</t>
+          <t>153</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -2402,12 +2321,24 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Annual Operational Expenditure</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>Total no. of Funding Agencies</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
@@ -2421,25 +2352,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Salaries (Teaching and Non Teaching staff)</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1806287335 (one hundred eighty crores sixty two lakhs eighty-seven thousand three hundred and thirty five only)</t>
+          <t>226745000</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1835296251 (one hundred eighty three crores fifty tow lakhs-ninety six thousand two hundred and fifty one only)</t>
+          <t>196154626</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>1966559973 (one hundred ninety six crores sixty five lakhs fifty-nine thousand nine hundred and seventy three only)</t>
+          <t>184517621</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -2455,27 +2383,24 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Maintenance of Academic Infrastructure or consumables and-other running expenditures(excluding maintenance of hostels-and allied services,rent of the building, depreciation cost, etc)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>65380826 (six crore fifty three lakhs eighty thousand eight-hundred and twenty six only)</t>
+          <t>Twenty Two Crore Sixty Seven Lakhs Forty Five Thousand</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>69611172 (six cores ninety six thousand eleven thousand one-hundred and seventy two only)</t>
+          <t>Nineteen Crore Sixty One Lakhs Fifty Four Thousand Six+Hundred Twenty Six</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>87747657 (eight crores seventy seven thousand forty seven-thousand six hundred and fifty seven only)</t>
+          <t>Eighteen Crore Forty Five Lakh Seventeen Thousand S ix+Hundred Twenty One</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -2491,25 +2416,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Seminars/Conferences/Workshops</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>334892 (three lakhs thirty four thousand eight hundred and-ninety two only)</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>242850 (two lakhs forty two thousand eight hundred and fifty-only)</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3709371 (thirty seven lakhs nine thousand three hundred and-seventy one only)</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -2525,22 +2447,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Consultancy Projects</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -2556,22 +2478,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total no. of Sponsored Projects</t>
+          <t>Total no. of Client Organizations</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -2587,22 +2509,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total no. of Funding Agencies</t>
+          <t>Total Amount Received (Amount in Rupees)</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>6677890</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>3493987</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>2207500</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -2618,22 +2540,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Amount Received in Words</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>304072791</t>
+          <t>Sixty Six Lakhs Seventy Seven Thousand Eight Hundred+Ninety</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>393003086</t>
+          <t>Thirty four lakhs ninety three thousand nine hundred and eighty+seven</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>356820612</t>
+          <t>Twenty Two Lakh Seven Thousand Five Hundred</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -2649,24 +2573,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>Financial Year</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>thirty crores forty lakhs seventy two thousand seven hundred-and ninety one</t>
+          <t>2021-22</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Thirty nine crores thirty lakhs three thousand and eighty six</t>
+          <t>2020-21</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>thirty five crores sixty eight lakhs twenty thousand six hundred-and twelve</t>
+          <t>2019-20</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -2682,22 +2604,23 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>Total no. of Executive Development Programs/ Management+Development Programs</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021-22</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020-21</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2019-20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -2713,22 +2636,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Total no. of Consultancy Projects</t>
+          <t>Total no. of Participants</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>742</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>442</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1043</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -2744,22 +2667,23 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Total no. of Client Organizations</t>
+          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging+&amp; Boarding Charges)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>46997096</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>40629130</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>76823271</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -2775,22 +2699,25 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Total Amount Received (Amount in Rupees)</t>
+          <t>Total Annual Earnings in Words</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>10105793</t>
+          <t>Four Crore Sixty Nine Lakhs Ninety Seven Thousand and+Ninety Six</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>13707189</t>
+          <t>Four Crore Six Lakhs Twenty Nine Thousand One Hundred+and Thirty</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>13975820</t>
+          <t>Seven Crore Sixty Eight Lakhs Twenty Three Thousand Two+Hundred Seventy One</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -2806,27 +2733,16 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Amount Received in Words</t>
+          <t>1. Do your institution buildings have Lifts/Ramps?</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>one crore one lakh five thousand seven hundred and ninety-three</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>One crore thirty seven lakhs seven thousand one hundred and-eighty nine</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>one crore thirty nine lakhs seventy five thousand eight hundred-and twenty</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
@@ -2840,24 +2756,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Financial Year</t>
+          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for+handicapped students?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021-22</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2020-21</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2019-20</t>
-        </is>
-      </c>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
@@ -2871,25 +2780,16 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Total no. of Executive Development Programs/ Management-Development Programs</t>
+          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>Yes, more than 80% of the buildings</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
@@ -2903,24 +2803,16 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Total no. of Participants</t>
+          <t>1. Does your institute have a valid NAAC Accreditation?</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>600</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
+          <t>YES</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
@@ -2934,25 +2826,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Total Annual Earnings (Amount in Rupees)(Excluding Lodging-&amp; Boarding Charges)</t>
+          <t>Valid from</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>279000</t>
+          <t>Valid upto</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>200000</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>190000</t>
-        </is>
-      </c>
+          <t>CGPA</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
@@ -2966,24 +2853,20 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Total Annual Earnings in Words</t>
+          <t>02-05-2017</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>two lakh seventy nine thousand</t>
+          <t>01-05-2022</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>two lakh</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>one lakh ninety thousand</t>
-        </is>
-      </c>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
@@ -2997,12 +2880,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1. Do your institution buildings have Lifts/Ramps?</t>
+          <t>Number of faculty members entered</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Yes, more than 80% of the buildings</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C65" t="inlineStr"/>
@@ -3017,153 +2900,6 @@
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2. Do your institution have provision for walking aids, including wheelchairs and transportation from one building to another for-handicapped students?</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>3. Do your institution buildings have specially designed toilets for handicapped students?</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Yes, more than 80% of the buildings</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>1. Does your institute have a valid NAAC Accreditation?</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>YES</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Valid from</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Valid upto</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>CGPA</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>03-01-2023</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>02-01-2028</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr"/>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Number of faculty members entered</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>421</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
